--- a/testautomation/src/main/resources/SourceDataFiles/HPHotelResData.xlsx
+++ b/testautomation/src/main/resources/SourceDataFiles/HPHotelResData.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t xml:space="preserve">IdHotelRes</t>
   </si>
   <si>
+    <t xml:space="preserve">Origin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Destination</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t xml:space="preserve">HR001</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancún (y alrededores), México</t>
   </si>
   <si>
@@ -191,6 +197,78 @@
   </si>
   <si>
     <t xml:space="preserve">Londres (y alrededores), Inglaterra, Reino Unido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogotá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartagena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Ángeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Río de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">París</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Londres</t>
   </si>
 </sst>
 </file>
@@ -373,50 +451,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="35" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="15.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="36" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +511,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -441,7 +520,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -450,7 +529,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -459,7 +538,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -468,7 +547,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -477,7 +556,7 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -486,7 +565,7 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -495,7 +574,7 @@
       <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -504,7 +583,7 @@
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
@@ -513,7 +592,7 @@
       <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -521,29 +600,32 @@
       </c>
       <c r="AH1" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
@@ -624,28 +706,31 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
@@ -728,27 +813,30 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
@@ -832,27 +920,30 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -936,27 +1027,30 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
@@ -1040,27 +1134,30 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -1144,27 +1241,30 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
@@ -1248,27 +1348,30 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
@@ -1352,27 +1455,30 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -1456,110 +1562,1186 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
